--- a/figures/rtcvsdnc.xlsx
+++ b/figures/rtcvsdnc.xlsx
@@ -142,6 +142,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -224,6 +237,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -306,6 +332,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -388,6 +427,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="C00000"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -470,6 +522,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -552,6 +617,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -634,6 +712,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="sphere">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="00B050"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -716,6 +807,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="weave">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -795,12 +901,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="122223616"/>
-        <c:axId val="117167744"/>
-        <c:axId val="122164480"/>
+        <c:axId val="127609856"/>
+        <c:axId val="113235584"/>
+        <c:axId val="127546624"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122223616"/>
+        <c:axId val="127609856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117167744"/>
+        <c:crossAx val="113235584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117167744"/>
+        <c:axId val="113235584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +935,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122223616"/>
+        <c:crossAx val="127609856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="122164480"/>
+        <c:axId val="127546624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,13 +962,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117167744"/>
+        <c:crossAx val="113235584"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7583902012248469"/>
+          <c:y val="0.13735345581802275"/>
+          <c:w val="0.15272090988626422"/>
+          <c:h val="0.66973753280839898"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -872,7 +987,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -907,6 +1022,67 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1729248">
+          <a:off x="5753101" y="5210175"/>
+          <a:ext cx="990600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Packet Length</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1202,7 +1378,7 @@
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/figures/rtcvsdnc.xlsx
+++ b/figures/rtcvsdnc.xlsx
@@ -145,10 +145,7 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="tx2"/>
@@ -240,10 +237,7 @@
           <c:spPr>
             <a:pattFill prst="narVert">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C00000"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="accent2"/>
@@ -335,10 +329,7 @@
           <c:spPr>
             <a:pattFill prst="ltHorz">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="accent3"/>
@@ -430,13 +421,14 @@
           <c:spPr>
             <a:pattFill prst="horzBrick">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:bgClr>
             </a:pattFill>
           </c:spPr>
@@ -525,13 +517,10 @@
           <c:spPr>
             <a:pattFill prst="wdDnDiag">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FFC000"/>
               </a:bgClr>
             </a:pattFill>
           </c:spPr>
@@ -620,10 +609,7 @@
           <c:spPr>
             <a:pattFill prst="openDmnd">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="accent6"/>
@@ -715,10 +701,7 @@
           <c:spPr>
             <a:pattFill prst="sphere">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:fgClr>
               <a:bgClr>
                 <a:srgbClr val="00B050"/>
@@ -810,9 +793,8 @@
           <c:spPr>
             <a:pattFill prst="weave">
               <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
@@ -901,12 +883,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="127609856"/>
-        <c:axId val="113235584"/>
-        <c:axId val="127546624"/>
+        <c:axId val="119680512"/>
+        <c:axId val="109565568"/>
+        <c:axId val="119612672"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="127609856"/>
+        <c:axId val="119680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113235584"/>
+        <c:crossAx val="109565568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113235584"/>
+        <c:axId val="109565568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127609856"/>
+        <c:crossAx val="119680512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="127546624"/>
+        <c:axId val="119612672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113235584"/>
+        <c:crossAx val="109565568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1027,15 +1009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>156653</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>48065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>166983</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1043,9 +1025,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1729248">
-          <a:off x="5753101" y="5210175"/>
-          <a:ext cx="990600" cy="333375"/>
+        <a:xfrm rot="1922539">
+          <a:off x="5643053" y="5191565"/>
+          <a:ext cx="1229530" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,10 +1058,85 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Packet Length</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>Packet Length (flits)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529193</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152403</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4712904" y="4055414"/>
+          <a:ext cx="1618987" cy="232810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End-to-end latency (cycle)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1378,7 +1435,7 @@
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/figures/rtcvsdnc.xlsx
+++ b/figures/rtcvsdnc.xlsx
@@ -193,28 +193,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,28 +285,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>63.24</c:v>
+                  <c:v>64.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.16</c:v>
+                  <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.08</c:v>
+                  <c:v>56.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.92</c:v>
+                  <c:v>47.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.84</c:v>
+                  <c:v>43.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.76</c:v>
+                  <c:v>39.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.68</c:v>
+                  <c:v>35.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,28 +377,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,28 +473,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>67.125</c:v>
+                  <c:v>68.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.75</c:v>
+                  <c:v>63.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.375</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.625</c:v>
+                  <c:v>50.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.25</c:v>
+                  <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.875</c:v>
+                  <c:v>41.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,28 +565,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,28 +657,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>73.888000000000005</c:v>
+                  <c:v>74.888000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.111000000000004</c:v>
+                  <c:v>65.111000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.222000000000001</c:v>
+                  <c:v>60.222000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.33</c:v>
+                  <c:v>55.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.444000000000003</c:v>
+                  <c:v>50.444000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.555999999999997</c:v>
+                  <c:v>45.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.667000000000002</c:v>
+                  <c:v>40.667000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,25 +752,25 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,28 +845,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>88.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.5</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.5</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.5</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.5</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,12 +883,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="119680512"/>
-        <c:axId val="109565568"/>
-        <c:axId val="119612672"/>
+        <c:axId val="120864256"/>
+        <c:axId val="112711296"/>
+        <c:axId val="120633856"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="119680512"/>
+        <c:axId val="120864256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109565568"/>
+        <c:crossAx val="112711296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109565568"/>
+        <c:axId val="112711296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119680512"/>
+        <c:crossAx val="120864256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="119612672"/>
+        <c:axId val="120633856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109565568"/>
+        <c:crossAx val="112711296"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1072,13 +1072,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>529193</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152403</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28312</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1087,7 +1087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4712904" y="4055414"/>
+          <a:off x="4712904" y="3998264"/>
           <a:ext cx="1618987" cy="232810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1127,7 +1127,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>End-to-end latency (cycle)</a:t>
+            <a:t>End-to-end delay (cycles)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1050">
             <a:solidFill>
@@ -1435,7 +1435,7 @@
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,28 +1471,28 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>63.24</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>67.125</v>
+        <v>68.125</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>73.888000000000005</v>
+        <v>74.888000000000005</v>
       </c>
       <c r="I4">
         <v>68</v>
       </c>
       <c r="J4">
-        <v>88.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1500,28 +1500,28 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>59.16</v>
+        <v>60.16</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>62.75</v>
+        <v>63.75</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5">
-        <v>82.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1529,28 +1529,28 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>55.08</v>
+        <v>56.08</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>58.375</v>
+        <v>59.375</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>64.111000000000004</v>
+        <v>65.111000000000004</v>
       </c>
       <c r="I6">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J6">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -1558,28 +1558,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>59.222000000000001</v>
+        <v>60.222000000000001</v>
       </c>
       <c r="I7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J7">
-        <v>70.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -1587,28 +1587,28 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>46.92</v>
+        <v>47.92</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>49.625</v>
+        <v>50.625</v>
       </c>
       <c r="G8">
         <v>44</v>
       </c>
       <c r="H8">
-        <v>54.33</v>
+        <v>55.33</v>
       </c>
       <c r="I8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8">
-        <v>64.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1616,28 +1616,28 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>42.84</v>
+        <v>43.84</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>45.25</v>
+        <v>46.25</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>49.444000000000003</v>
+        <v>50.444000000000003</v>
       </c>
       <c r="I9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1645,28 +1645,28 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>38.76</v>
+        <v>39.76</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>40.875</v>
+        <v>41.875</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>44.555999999999997</v>
+        <v>45.555999999999997</v>
       </c>
       <c r="I10">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>34.68</v>
+        <v>35.68</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>39.667000000000002</v>
+        <v>40.667000000000002</v>
       </c>
       <c r="I11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
-        <v>46.5</v>
+        <v>47.5</v>
       </c>
     </row>
   </sheetData>

--- a/figures/rtcvsdnc.xlsx
+++ b/figures/rtcvsdnc.xlsx
@@ -883,12 +883,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="120864256"/>
-        <c:axId val="112711296"/>
-        <c:axId val="120633856"/>
+        <c:axId val="49994752"/>
+        <c:axId val="114415232"/>
+        <c:axId val="49968384"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="120864256"/>
+        <c:axId val="49994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112711296"/>
+        <c:crossAx val="114415232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112711296"/>
+        <c:axId val="114415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120864256"/>
+        <c:crossAx val="49994752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="120633856"/>
+        <c:axId val="49968384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112711296"/>
+        <c:crossAx val="114415232"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1435,7 +1435,7 @@
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
